--- a/data/trans_orig/IP2902-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP2902-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E268A580-7EFF-45CD-BA43-3C83A8E2E7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A5DDB68-7186-4952-B316-041D398AB268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3B83D216-68A3-48CA-95CD-682E815284BD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FD5295FB-2CA0-4842-A088-74A10B07F4A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="335">
   <si>
     <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2007 (Tasa respuesta: 97,01%)</t>
   </si>
@@ -106,82 +106,82 @@
     <t>32,93%</t>
   </si>
   <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
   </si>
   <si>
     <t>30,62%</t>
   </si>
   <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
   </si>
   <si>
     <t>31,74%</t>
   </si>
   <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
   </si>
   <si>
     <t>13,8%</t>
   </si>
   <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
   </si>
   <si>
     <t>10,4%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
   </si>
   <si>
     <t>12,05%</t>
   </si>
   <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
   </si>
   <si>
     <t>53,27%</t>
   </si>
   <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
   </si>
   <si>
     <t>58,97%</t>
   </si>
   <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
   </si>
   <si>
     <t>56,21%</t>
   </si>
   <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -190,46 +190,46 @@
     <t>25,43%</t>
   </si>
   <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
   </si>
   <si>
     <t>23,26%</t>
   </si>
   <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
   </si>
   <si>
     <t>24,41%</t>
   </si>
   <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
   </si>
   <si>
     <t>12,24%</t>
   </si>
   <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
   </si>
   <si>
     <t>11,36%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -238,34 +238,34 @@
     <t>10,12%</t>
   </si>
   <si>
-    <t>13,71%</t>
+    <t>13,76%</t>
   </si>
   <si>
     <t>62,33%</t>
   </si>
   <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
   </si>
   <si>
     <t>65,39%</t>
   </si>
   <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
   </si>
   <si>
     <t>63,76%</t>
   </si>
   <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -274,787 +274,775 @@
     <t>19,13%</t>
   </si>
   <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2012 (Tasa respuesta: 98,48%)</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2016 (Tasa respuesta: 97,51%)</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2012 (Tasa respuesta: 98,48%)</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2015 (Tasa respuesta: 97,51%)</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
     <t>64,91%</t>
   </si>
   <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
   </si>
   <si>
     <t>64,39%</t>
   </si>
   <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
   </si>
   <si>
     <t>64,65%</t>
   </si>
   <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
   </si>
 </sst>
 </file>
@@ -1466,7 +1454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F69772C-AE8D-4AD3-ADA1-E6B48D36B607}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14B6F22-5FE9-4B0F-8A94-35714FBE273B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2433,7 +2421,7 @@
         <v>505</v>
       </c>
       <c r="N20" s="7">
-        <v>335200</v>
+        <v>335201</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>110</v>
@@ -2478,22 +2466,22 @@
         <v>117</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="M21" s="7">
         <v>255</v>
       </c>
       <c r="N21" s="7">
-        <v>170451</v>
+        <v>170452</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,13 +2496,13 @@
         <v>432150</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>629</v>
@@ -2523,28 +2511,28 @@
         <v>422489</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>1281</v>
       </c>
       <c r="N22" s="7">
-        <v>854639</v>
+        <v>854640</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,7 +2574,7 @@
         <v>2041</v>
       </c>
       <c r="N23" s="7">
-        <v>1360291</v>
+        <v>1360292</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -2600,7 +2588,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2620,7 +2608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898EAF59-83A9-48D6-90C7-9BD163BAAD0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB57B32-165C-4544-8BB8-34B83ABD1C00}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2637,7 +2625,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2942,10 +2930,10 @@
         <v>27646</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>134</v>
@@ -2999,7 +2987,7 @@
         <v>142</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="H9" s="7">
         <v>19</v>
@@ -3008,13 +2996,13 @@
         <v>13663</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M9" s="7">
         <v>32</v>
@@ -3023,13 +3011,13 @@
         <v>22314</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,13 +3032,13 @@
         <v>47354</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="H10" s="7">
         <v>72</v>
@@ -3059,13 +3047,13 @@
         <v>49696</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M10" s="7">
         <v>137</v>
@@ -3074,13 +3062,13 @@
         <v>97050</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3136,13 @@
         <v>159220</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H12" s="7">
         <v>193</v>
@@ -3163,13 +3151,13 @@
         <v>131938</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M12" s="7">
         <v>424</v>
@@ -3178,13 +3166,13 @@
         <v>291157</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,13 +3187,13 @@
         <v>50959</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -3214,13 +3202,13 @@
         <v>52797</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M13" s="7">
         <v>151</v>
@@ -3229,13 +3217,13 @@
         <v>103756</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,13 +3238,13 @@
         <v>276822</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H14" s="7">
         <v>380</v>
@@ -3265,13 +3253,13 @@
         <v>263977</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>774</v>
@@ -3280,13 +3268,13 @@
         <v>540799</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,10 +3396,10 @@
         <v>192</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -3420,13 +3408,13 @@
         <v>14564</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M17" s="7">
         <v>66</v>
@@ -3435,13 +3423,13 @@
         <v>46475</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3444,13 @@
         <v>89002</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H18" s="7">
         <v>149</v>
@@ -3471,13 +3459,13 @@
         <v>106102</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M18" s="7">
         <v>275</v>
@@ -3486,13 +3474,13 @@
         <v>195104</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,13 +3548,13 @@
         <v>233811</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H20" s="7">
         <v>294</v>
@@ -3575,13 +3563,13 @@
         <v>201554</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M20" s="7">
         <v>631</v>
@@ -3590,13 +3578,13 @@
         <v>435365</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,13 +3599,13 @@
         <v>91520</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H21" s="7">
         <v>117</v>
@@ -3626,13 +3614,13 @@
         <v>81025</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M21" s="7">
         <v>249</v>
@@ -3641,13 +3629,13 @@
         <v>172545</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,13 +3650,13 @@
         <v>413819</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="H22" s="7">
         <v>601</v>
@@ -3677,13 +3665,13 @@
         <v>419776</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M22" s="7">
         <v>1187</v>
@@ -3692,13 +3680,13 @@
         <v>833594</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>233</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,7 +3742,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3774,7 +3762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0788A11F-EA11-4A32-BB2C-C992B4DF164C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2405180-E410-4D75-BA28-114BDBA9EC70}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3791,7 +3779,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4080,10 +4068,10 @@
         <v>14217</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>236</v>
@@ -4200,10 +4188,10 @@
         <v>255</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M10" s="7">
         <v>123</v>
@@ -4212,13 +4200,13 @@
         <v>84810</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,13 +4274,13 @@
         <v>96517</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H12" s="7">
         <v>156</v>
@@ -4301,13 +4289,13 @@
         <v>103051</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M12" s="7">
         <v>295</v>
@@ -4316,13 +4304,13 @@
         <v>199568</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,13 +4325,13 @@
         <v>75339</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H13" s="7">
         <v>107</v>
@@ -4352,13 +4340,13 @@
         <v>70920</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M13" s="7">
         <v>215</v>
@@ -4367,13 +4355,13 @@
         <v>146259</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,13 +4376,13 @@
         <v>303457</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H14" s="7">
         <v>435</v>
@@ -4403,13 +4391,13 @@
         <v>287683</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>158</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>864</v>
@@ -4418,13 +4406,13 @@
         <v>591140</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,13 +4480,13 @@
         <v>27614</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -4507,13 +4495,13 @@
         <v>24136</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M16" s="7">
         <v>75</v>
@@ -4522,13 +4510,13 @@
         <v>51750</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>251</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,13 +4531,13 @@
         <v>32372</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -4558,13 +4546,13 @@
         <v>29173</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M17" s="7">
         <v>91</v>
@@ -4573,13 +4561,13 @@
         <v>61545</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4582,13 @@
         <v>121699</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H18" s="7">
         <v>175</v>
@@ -4609,13 +4597,13 @@
         <v>116067</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M18" s="7">
         <v>349</v>
@@ -4624,13 +4612,13 @@
         <v>237765</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,13 +4686,13 @@
         <v>138348</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H20" s="7">
         <v>207</v>
@@ -4713,13 +4701,13 @@
         <v>137863</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>199</v>
+        <v>315</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M20" s="7">
         <v>407</v>
@@ -4728,13 +4716,13 @@
         <v>276211</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4737,13 @@
         <v>115748</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H21" s="7">
         <v>162</v>
@@ -4764,13 +4752,13 @@
         <v>107548</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M21" s="7">
         <v>330</v>
@@ -4779,13 +4767,13 @@
         <v>223296</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,13 +4788,13 @@
         <v>469996</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H22" s="7">
         <v>669</v>
@@ -4815,13 +4803,13 @@
         <v>443719</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M22" s="7">
         <v>1336</v>
@@ -4830,13 +4818,13 @@
         <v>913715</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,7 +4880,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
